--- a/4-datos/1-indicadores-de-resultados/1-inspecciones/inspeccion-limpieza-baño-06042016.xlsx
+++ b/4-datos/1-indicadores-de-resultados/1-inspecciones/inspeccion-limpieza-baño-06042016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="510" windowWidth="19875" windowHeight="6315"/>
+    <workbookView xWindow="480" yWindow="570" windowWidth="19875" windowHeight="6255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BAÑOS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="66">
   <si>
     <t>GESTION</t>
   </si>
@@ -226,12 +226,24 @@
   <si>
     <t>CERRADO</t>
   </si>
+  <si>
+    <t>EMILIANO</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>S/LUZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +279,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -288,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -311,20 +330,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,19 +417,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -353,8 +431,44 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,15 +768,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:AY164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -672,8 +786,8 @@
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -694,1761 +808,6861 @@
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>42466</v>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>6042016</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="30">
         <v>0.45555555555555555</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>42466</v>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>6042016</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>42466</v>
+      <c r="G3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>6042016</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>42466</v>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>6042016</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>42466</v>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>6042016</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="C6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>42466</v>
+      <c r="G6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>6042016</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>42466</v>
+      <c r="G7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="11">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>6042016</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>0.4597222222222222</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>42466</v>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>6042016</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="C9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>42466</v>
+      <c r="G9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>6042016</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="C10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>42466</v>
+      <c r="G10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="11">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>6042016</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <v>0.4604166666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>42466</v>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>6042016</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>42466</v>
+      <c r="G12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>6042016</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="C13" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>42466</v>
+      <c r="G13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="11">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>6042016</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <v>0.46180555555555558</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>42466</v>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>6042016</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="C15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>42466</v>
+      <c r="G15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>6042016</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>42466</v>
+      <c r="G16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="11">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>6042016</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <v>0.47291666666666665</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>42466</v>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>6042016</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="C18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>42466</v>
+      <c r="G18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>6042016</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>42466</v>
+      <c r="G19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="12">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>6042016</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <v>0.47222222222222227</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>42466</v>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>6042016</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="C21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>42466</v>
+      <c r="G21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>6042016</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="F22" s="11" t="s">
+      <c r="C22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="10">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>42466</v>
+      <c r="G22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="11">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>6042016</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="10">
         <v>3</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <v>0.47361111111111115</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>42466</v>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>6042016</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="11" t="s">
+      <c r="C24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>42466</v>
+      <c r="G24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>6042016</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="11" t="s">
+      <c r="C25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>42466</v>
+      <c r="G25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="11">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>6042016</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="10">
         <v>2</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="11">
         <v>0.47638888888888892</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>42466</v>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>6042016</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="F27" s="11" t="s">
+      <c r="C27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>42466</v>
+      <c r="G27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>6042016</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="F28" s="11" t="s">
+      <c r="C28" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>42466</v>
+      <c r="G28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="11">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>6042016</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="10">
         <v>3</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="11">
         <v>0.47569444444444442</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>42466</v>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>6042016</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="F30" s="11" t="s">
+      <c r="C30" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>42466</v>
+      <c r="G30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>6042016</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="11" t="s">
+      <c r="C31" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="10">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>42466</v>
+      <c r="G31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>6042016</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="10">
         <v>4</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="11">
         <v>0.46527777777777773</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>42466</v>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>6042016</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="F33" s="11" t="s">
+      <c r="C33" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>42466</v>
+      <c r="G33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>6042016</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="F34" s="11" t="s">
+      <c r="C34" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>42466</v>
+      <c r="G34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>6042016</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C35" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="10">
         <v>3</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="11">
         <v>0.46666666666666662</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>42466</v>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>6042016</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="F36" s="11" t="s">
+      <c r="C36" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="10">
+        <v>3</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>42466</v>
+      <c r="G36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>6042016</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="F37" s="11" t="s">
+      <c r="C37" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>42466</v>
+      <c r="G37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="21"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>6042016</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="C38" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="10">
         <v>4</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="11">
         <v>0.46666666666666662</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>42466</v>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="21"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>6042016</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="F39" s="11" t="s">
+      <c r="C39" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="10">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>42466</v>
+      <c r="G39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="21"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>6042016</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="F40" s="11" t="s">
+      <c r="C40" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>42466</v>
+      <c r="G40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.10625</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="21"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>6042016</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="10">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="12">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>42466</v>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="21"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>6042016</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="F42" s="11" t="s">
+      <c r="C42" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>42466</v>
+      <c r="G42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="21"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>6042016</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="F43" s="11" t="s">
+      <c r="C43" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>42466</v>
+      <c r="G43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="21"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>6042016</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="C44" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="10">
         <v>2</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="E44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="12">
         <v>0.48472222222222222</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>42466</v>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="21"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>6042016</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="F45" s="11" t="s">
+      <c r="C45" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>42466</v>
+      <c r="G45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="21"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <v>6042016</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="F46" s="11" t="s">
+      <c r="C46" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>42466</v>
+      <c r="G46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="21"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>6042016</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="13">
+      <c r="C47" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="10">
         <v>3</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>42466</v>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="21"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>6042016</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="F48" s="11" t="s">
+      <c r="C48" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>42466</v>
+      <c r="G48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="21"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>6042016</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="F49" s="11" t="s">
+      <c r="C49" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>42466</v>
+      <c r="G49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="21"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>6042016</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="13">
+      <c r="C50" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="10">
         <v>4</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="12">
         <v>0.48472222222222222</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>42466</v>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="21"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>6042016</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="F51" s="11" t="s">
+      <c r="C51" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>42466</v>
+      <c r="G51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="21"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>6042016</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="F52" s="11" t="s">
+      <c r="C52" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>42466</v>
+      <c r="G52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="21"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="28">
+        <v>6042016</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="13">
+      <c r="C53" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="10">
         <v>2</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="E53" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="12">
         <v>0.4826388888888889</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>42466</v>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="21"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <v>6042016</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="F54" s="11" t="s">
+      <c r="C54" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="10">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <v>42466</v>
+      <c r="G54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="21"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
+        <v>6042016</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="F55" s="11" t="s">
+      <c r="C55" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>42466</v>
+      <c r="G55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="21"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>6042016</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="12">
         <v>0.4826388888888889</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>42466</v>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="21"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
+        <v>6042016</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="F57" s="11" t="s">
+      <c r="C57" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>42466</v>
+      <c r="G57" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="21"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>6042016</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="F58" s="11" t="s">
+      <c r="C58" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <v>42466</v>
+      <c r="G58" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="21"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <v>6042016</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="13">
+      <c r="C59" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="10">
         <v>3</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="12">
         <v>0.48125000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>42466</v>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="21"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <v>6042016</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="F60" s="11" t="s">
+      <c r="C60" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <v>42466</v>
+      <c r="G60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="21"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
+        <v>6042016</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="F61" s="11" t="s">
+      <c r="C61" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>42466</v>
+      <c r="G61" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="21"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="28">
+        <v>6042016</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="13">
+      <c r="C62" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="10">
         <v>2</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="11">
         <v>0.48194444444444445</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>42466</v>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="21"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="27">
+        <v>6042016</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="F63" s="11" t="s">
+      <c r="C63" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="10">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>42466</v>
+      <c r="G63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="21"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="28">
+        <v>6042016</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="F64" s="11" t="s">
+      <c r="C64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="9">
+        <v>3</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>42466</v>
+      <c r="G64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="21"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="27">
+        <v>6042016</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="13">
+      <c r="C65" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="10">
         <v>4</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="11">
         <v>0.47986111111111113</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>42466</v>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="21"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>6042016</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="11"/>
-      <c r="F66" s="11" t="s">
+      <c r="C66" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="9">
+        <v>2</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <v>42466</v>
+      <c r="G66" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="21"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="27">
+        <v>6042016</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="C67" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="9">
+        <v>3</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <v>42466</v>
+      <c r="G67" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="21"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
+        <v>6042016</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="13">
+      <c r="C68" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="10">
         <v>3</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="E68" s="9"/>
+      <c r="F68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="11">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>42466</v>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="21"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="27">
+        <v>6042016</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="11"/>
-      <c r="F69" s="11" t="s">
+      <c r="C69" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>42466</v>
+      <c r="G69" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="21"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="28">
+        <v>6042016</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="11"/>
-      <c r="F70" s="11" t="s">
+      <c r="C70" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="9">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <v>42466</v>
+      <c r="G70" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="21"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="27">
+        <v>6042016</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="11">
+      <c r="C71" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="9">
         <v>3</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="11">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>42466</v>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="21"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
+        <v>6042016</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="11"/>
-      <c r="F72" s="11" t="s">
+      <c r="C72" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="9">
+        <v>3</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>42466</v>
+      <c r="G72" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="21"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="27">
+        <v>6042016</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="11"/>
-      <c r="F73" s="11" t="s">
+      <c r="C73" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="9">
+        <v>3</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>42466</v>
+      <c r="G73" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="21"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="28">
+        <v>6042016</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="11">
+      <c r="C74" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="9">
         <v>5</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="11">
         <v>0.49305555555555558</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>42466</v>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="21"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="27">
+        <v>6042016</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="11"/>
-      <c r="F75" s="11" t="s">
+      <c r="C75" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="9">
+        <v>4</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <v>42466</v>
+      <c r="G75" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="21"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="27">
+        <v>6042016</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="11"/>
-      <c r="F76" s="11" t="s">
+      <c r="C76" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="9">
+        <v>4</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>42466</v>
+      <c r="G76" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="21"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="28">
+        <v>6042016</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="13">
+      <c r="C77" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="10">
         <v>5</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="11">
         <v>0.49305555555555558</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>42466</v>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="21"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="27">
+        <v>6042016</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="11"/>
-      <c r="F78" s="11" t="s">
+      <c r="C78" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="9">
+        <v>3</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
-        <v>42466</v>
+      <c r="G78" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="21"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="28">
+        <v>6042016</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="11"/>
-      <c r="F79" s="11" t="s">
+      <c r="C79" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
-        <v>42466</v>
+      <c r="G79" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="21"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="27">
+        <v>6042016</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="11">
+      <c r="C80" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="9">
         <v>3</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="E80" s="9"/>
+      <c r="F80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="11">
         <v>0.48958333333333331</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <v>42466</v>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="21"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="28">
+        <v>6042016</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="11"/>
-      <c r="F81" s="11" t="s">
+      <c r="C81" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" s="9">
+        <v>4</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
-        <v>42466</v>
+      <c r="G81" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="21"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="27">
+        <v>6042016</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="11"/>
-      <c r="F82" s="11" t="s">
+      <c r="C82" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="9">
+        <v>4</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
-        <v>42466</v>
+      <c r="G82" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="21"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="28">
+        <v>6042016</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="11">
+      <c r="C83" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="9">
         <v>3</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="11">
         <v>0.48958333333333331</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>42466</v>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="21"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="27">
+        <v>6042016</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="11"/>
-      <c r="F84" s="11" t="s">
+      <c r="C84" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="9">
+        <v>2</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <v>42466</v>
+      <c r="G84" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="21"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="28">
+        <v>6042016</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="11"/>
-      <c r="F85" s="11" t="s">
+      <c r="C85" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="9">
+        <v>3</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
-        <v>42466</v>
+      <c r="G85" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="21"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="27">
+        <v>6042016</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="11">
+      <c r="C86" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="9">
         <v>3</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="E86" s="9"/>
+      <c r="F86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="G86" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H86" s="11">
         <v>0.50694444444444442</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <v>42466</v>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="21"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="28">
+        <v>6042016</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="11"/>
-      <c r="F87" s="11" t="s">
+      <c r="C87" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="9">
+        <v>4</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <v>42466</v>
+      <c r="G87" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="21"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="27">
+        <v>6042016</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="F88" s="11" t="s">
+      <c r="C88" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="9">
+        <v>3</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
-        <v>42466</v>
+      <c r="G88" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="21"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="27">
+        <v>6042016</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="13">
+      <c r="C89" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="10">
         <v>4</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H89" s="11">
         <v>0.5083333333333333</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
-        <v>42466</v>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="21"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="28">
+        <v>6042016</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="F90" s="11" t="s">
+      <c r="C90" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="10">
+        <v>3</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
-        <v>42466</v>
+      <c r="G90" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="21"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="27">
+        <v>6042016</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="12"/>
-      <c r="F91" s="11" t="s">
+      <c r="C91" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="10">
+        <v>3</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
-        <v>42466</v>
+      <c r="G91" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="21"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="28">
+        <v>6042016</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="13">
+      <c r="C92" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="10">
         <v>4</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="E92" s="9"/>
+      <c r="F92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H92" s="16">
+      <c r="H92" s="12">
         <v>0.50902777777777775</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
-        <v>42466</v>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="21"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="27">
+        <v>6042016</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="F93" s="11" t="s">
+      <c r="C93" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="9">
+        <v>4</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G93" s="13"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
-        <v>42466</v>
+      <c r="G93" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="21"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="28">
+        <v>6042016</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="F94" s="11" t="s">
+      <c r="C94" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="9">
+        <v>4</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
-        <v>42466</v>
+      <c r="G94" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="21"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="27">
+        <v>6042016</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="13">
+      <c r="C95" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="10">
         <v>4</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="13" t="s">
+      <c r="G95" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="16">
+      <c r="H95" s="12">
         <v>0.51041666666666663</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <v>42466</v>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="21"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="28">
+        <v>6042016</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="C96" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <v>42466</v>
+      <c r="G96" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="21"/>
+    </row>
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A97" s="27">
+        <v>6042016</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="C97" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="9">
+        <v>3</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G97" s="13"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G98" s="13"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G99" s="13"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F100" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F103" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="4"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="4"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="4"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="4"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="4"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="4"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C124" s="4"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C127" s="4"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C130" s="4"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="4"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="4"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C139" s="4"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C142" s="4"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="4"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="3"/>
+      <c r="G97" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
+      <c r="S97" s="21"/>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
+      <c r="AA98" s="13"/>
+      <c r="AB98" s="13"/>
+      <c r="AC98" s="13"/>
+      <c r="AD98" s="13"/>
+      <c r="AE98" s="13"/>
+      <c r="AF98" s="13"/>
+      <c r="AG98" s="13"/>
+      <c r="AH98" s="13"/>
+      <c r="AI98" s="13"/>
+      <c r="AJ98" s="13"/>
+      <c r="AK98" s="13"/>
+      <c r="AL98" s="13"/>
+      <c r="AM98" s="13"/>
+      <c r="AN98" s="13"/>
+      <c r="AO98" s="13"/>
+      <c r="AP98" s="13"/>
+      <c r="AQ98" s="13"/>
+      <c r="AR98" s="13"/>
+      <c r="AS98" s="13"/>
+      <c r="AT98" s="13"/>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="15"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="15"/>
+      <c r="AA99" s="15"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="15"/>
+      <c r="AN99" s="15"/>
+      <c r="AO99" s="15"/>
+      <c r="AP99" s="15"/>
+      <c r="AQ99" s="15"/>
+      <c r="AR99" s="15"/>
+      <c r="AS99" s="15"/>
+      <c r="AT99" s="15"/>
+      <c r="AU99" s="21"/>
+    </row>
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="15"/>
+      <c r="W100" s="15"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="15"/>
+      <c r="AA100" s="15"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="15"/>
+      <c r="AN100" s="15"/>
+      <c r="AO100" s="15"/>
+      <c r="AP100" s="15"/>
+      <c r="AQ100" s="15"/>
+      <c r="AR100" s="15"/>
+      <c r="AS100" s="15"/>
+      <c r="AT100" s="15"/>
+      <c r="AU100" s="21"/>
+    </row>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
+      <c r="S101" s="15"/>
+      <c r="T101" s="15"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="15"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="15"/>
+      <c r="AA101" s="15"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="15"/>
+      <c r="AD101" s="15"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="15"/>
+      <c r="AN101" s="15"/>
+      <c r="AO101" s="15"/>
+      <c r="AP101" s="15"/>
+      <c r="AQ101" s="15"/>
+      <c r="AR101" s="15"/>
+      <c r="AS101" s="15"/>
+      <c r="AT101" s="15"/>
+      <c r="AU101" s="21"/>
+    </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="15"/>
+      <c r="S102" s="15"/>
+      <c r="T102" s="15"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="15"/>
+      <c r="W102" s="15"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="15"/>
+      <c r="AA102" s="15"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="15"/>
+      <c r="AD102" s="15"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="15"/>
+      <c r="AK102" s="15"/>
+      <c r="AL102" s="15"/>
+      <c r="AM102" s="15"/>
+      <c r="AN102" s="15"/>
+      <c r="AO102" s="15"/>
+      <c r="AP102" s="15"/>
+      <c r="AQ102" s="15"/>
+      <c r="AR102" s="15"/>
+      <c r="AS102" s="15"/>
+      <c r="AT102" s="15"/>
+      <c r="AU102" s="21"/>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="15"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
+      <c r="AA103" s="15"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="15"/>
+      <c r="AD103" s="15"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="15"/>
+      <c r="AK103" s="15"/>
+      <c r="AL103" s="15"/>
+      <c r="AM103" s="15"/>
+      <c r="AN103" s="15"/>
+      <c r="AO103" s="15"/>
+      <c r="AP103" s="15"/>
+      <c r="AQ103" s="15"/>
+      <c r="AR103" s="15"/>
+      <c r="AS103" s="15"/>
+      <c r="AT103" s="15"/>
+      <c r="AU103" s="21"/>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="15"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
+      <c r="AA104" s="15"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="15"/>
+      <c r="AD104" s="15"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="15"/>
+      <c r="AK104" s="15"/>
+      <c r="AL104" s="15"/>
+      <c r="AM104" s="15"/>
+      <c r="AN104" s="15"/>
+      <c r="AO104" s="15"/>
+      <c r="AP104" s="15"/>
+      <c r="AQ104" s="15"/>
+      <c r="AR104" s="15"/>
+      <c r="AS104" s="15"/>
+      <c r="AT104" s="15"/>
+      <c r="AU104" s="22"/>
+      <c r="AV104" s="13"/>
+      <c r="AW104" s="13"/>
+      <c r="AX104" s="13"/>
+      <c r="AY104" s="13"/>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="15"/>
+      <c r="T105" s="15"/>
+      <c r="U105" s="15"/>
+      <c r="V105" s="15"/>
+      <c r="W105" s="15"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="15"/>
+      <c r="AA105" s="15"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="15"/>
+      <c r="AD105" s="15"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="15"/>
+      <c r="AK105" s="15"/>
+      <c r="AL105" s="15"/>
+      <c r="AM105" s="15"/>
+      <c r="AN105" s="15"/>
+      <c r="AO105" s="15"/>
+      <c r="AP105" s="15"/>
+      <c r="AQ105" s="15"/>
+      <c r="AR105" s="15"/>
+      <c r="AS105" s="15"/>
+      <c r="AT105" s="15"/>
+      <c r="AU105" s="15"/>
+      <c r="AV105" s="15"/>
+      <c r="AW105" s="15"/>
+      <c r="AX105" s="15"/>
+      <c r="AY105" s="15"/>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
+      <c r="U106" s="15"/>
+      <c r="V106" s="15"/>
+      <c r="W106" s="15"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="15"/>
+      <c r="AA106" s="15"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="15"/>
+      <c r="AD106" s="15"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="15"/>
+      <c r="AK106" s="15"/>
+      <c r="AL106" s="15"/>
+      <c r="AM106" s="15"/>
+      <c r="AN106" s="15"/>
+      <c r="AO106" s="15"/>
+      <c r="AP106" s="15"/>
+      <c r="AQ106" s="15"/>
+      <c r="AR106" s="15"/>
+      <c r="AS106" s="15"/>
+      <c r="AT106" s="15"/>
+      <c r="AU106" s="15"/>
+      <c r="AV106" s="15"/>
+      <c r="AW106" s="15"/>
+      <c r="AX106" s="15"/>
+      <c r="AY106" s="15"/>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="15"/>
+      <c r="T107" s="15"/>
+      <c r="U107" s="15"/>
+      <c r="V107" s="15"/>
+      <c r="W107" s="15"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="15"/>
+      <c r="AA107" s="15"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="15"/>
+      <c r="AD107" s="15"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="15"/>
+      <c r="AK107" s="15"/>
+      <c r="AL107" s="15"/>
+      <c r="AM107" s="15"/>
+      <c r="AN107" s="15"/>
+      <c r="AO107" s="15"/>
+      <c r="AP107" s="15"/>
+      <c r="AQ107" s="15"/>
+      <c r="AR107" s="15"/>
+      <c r="AS107" s="15"/>
+      <c r="AT107" s="15"/>
+      <c r="AU107" s="15"/>
+      <c r="AV107" s="15"/>
+      <c r="AW107" s="15"/>
+      <c r="AX107" s="15"/>
+      <c r="AY107" s="15"/>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="15"/>
+      <c r="AK108" s="15"/>
+      <c r="AL108" s="15"/>
+      <c r="AM108" s="15"/>
+      <c r="AN108" s="15"/>
+      <c r="AO108" s="15"/>
+      <c r="AP108" s="15"/>
+      <c r="AQ108" s="15"/>
+      <c r="AR108" s="15"/>
+      <c r="AS108" s="15"/>
+      <c r="AT108" s="15"/>
+      <c r="AU108" s="15"/>
+      <c r="AV108" s="15"/>
+      <c r="AW108" s="15"/>
+      <c r="AX108" s="15"/>
+      <c r="AY108" s="15"/>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="15"/>
+      <c r="AN109" s="15"/>
+      <c r="AO109" s="15"/>
+      <c r="AP109" s="15"/>
+      <c r="AQ109" s="15"/>
+      <c r="AR109" s="15"/>
+      <c r="AS109" s="15"/>
+      <c r="AT109" s="15"/>
+      <c r="AU109" s="15"/>
+      <c r="AV109" s="15"/>
+      <c r="AW109" s="15"/>
+      <c r="AX109" s="15"/>
+      <c r="AY109" s="15"/>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
+      <c r="S110" s="15"/>
+      <c r="T110" s="15"/>
+      <c r="U110" s="15"/>
+      <c r="V110" s="15"/>
+      <c r="W110" s="15"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="15"/>
+      <c r="AA110" s="15"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="15"/>
+      <c r="AD110" s="15"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="15"/>
+      <c r="AN110" s="15"/>
+      <c r="AO110" s="15"/>
+      <c r="AP110" s="15"/>
+      <c r="AQ110" s="15"/>
+      <c r="AR110" s="15"/>
+      <c r="AS110" s="15"/>
+      <c r="AT110" s="15"/>
+      <c r="AU110" s="15"/>
+      <c r="AV110" s="15"/>
+      <c r="AW110" s="15"/>
+      <c r="AX110" s="15"/>
+      <c r="AY110" s="15"/>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
+      <c r="S111" s="15"/>
+      <c r="T111" s="15"/>
+      <c r="U111" s="15"/>
+      <c r="V111" s="15"/>
+      <c r="W111" s="15"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="15"/>
+      <c r="AA111" s="15"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="15"/>
+      <c r="AD111" s="15"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+      <c r="AH111" s="15"/>
+      <c r="AI111" s="15"/>
+      <c r="AJ111" s="15"/>
+      <c r="AK111" s="15"/>
+      <c r="AL111" s="15"/>
+      <c r="AM111" s="15"/>
+      <c r="AN111" s="15"/>
+      <c r="AO111" s="15"/>
+      <c r="AP111" s="15"/>
+      <c r="AQ111" s="15"/>
+      <c r="AR111" s="15"/>
+      <c r="AS111" s="15"/>
+      <c r="AT111" s="15"/>
+      <c r="AU111" s="15"/>
+      <c r="AV111" s="15"/>
+      <c r="AW111" s="15"/>
+      <c r="AX111" s="15"/>
+      <c r="AY111" s="15"/>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
+      <c r="S112" s="15"/>
+      <c r="T112" s="15"/>
+      <c r="U112" s="15"/>
+      <c r="V112" s="15"/>
+      <c r="W112" s="15"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="Z112" s="15"/>
+      <c r="AA112" s="15"/>
+      <c r="AB112" s="15"/>
+      <c r="AC112" s="15"/>
+      <c r="AD112" s="15"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+      <c r="AH112" s="15"/>
+      <c r="AI112" s="15"/>
+      <c r="AJ112" s="15"/>
+      <c r="AK112" s="15"/>
+      <c r="AL112" s="15"/>
+      <c r="AM112" s="15"/>
+      <c r="AN112" s="15"/>
+      <c r="AO112" s="15"/>
+      <c r="AP112" s="15"/>
+      <c r="AQ112" s="15"/>
+      <c r="AR112" s="15"/>
+      <c r="AS112" s="15"/>
+      <c r="AT112" s="15"/>
+      <c r="AU112" s="15"/>
+      <c r="AV112" s="15"/>
+      <c r="AW112" s="15"/>
+      <c r="AX112" s="15"/>
+      <c r="AY112" s="15"/>
+    </row>
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="15"/>
+      <c r="T113" s="15"/>
+      <c r="U113" s="15"/>
+      <c r="V113" s="15"/>
+      <c r="W113" s="15"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+      <c r="Z113" s="15"/>
+      <c r="AA113" s="15"/>
+      <c r="AB113" s="15"/>
+      <c r="AC113" s="15"/>
+      <c r="AD113" s="15"/>
+      <c r="AE113" s="15"/>
+      <c r="AF113" s="15"/>
+      <c r="AG113" s="15"/>
+      <c r="AH113" s="15"/>
+      <c r="AI113" s="15"/>
+      <c r="AJ113" s="15"/>
+      <c r="AK113" s="15"/>
+      <c r="AL113" s="15"/>
+      <c r="AM113" s="15"/>
+      <c r="AN113" s="15"/>
+      <c r="AO113" s="15"/>
+      <c r="AP113" s="15"/>
+      <c r="AQ113" s="15"/>
+      <c r="AR113" s="15"/>
+      <c r="AS113" s="15"/>
+      <c r="AT113" s="15"/>
+      <c r="AU113" s="15"/>
+      <c r="AV113" s="15"/>
+      <c r="AW113" s="15"/>
+      <c r="AX113" s="15"/>
+      <c r="AY113" s="15"/>
+    </row>
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
+      <c r="S114" s="15"/>
+      <c r="T114" s="15"/>
+      <c r="U114" s="15"/>
+      <c r="V114" s="15"/>
+      <c r="W114" s="15"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="15"/>
+      <c r="AA114" s="15"/>
+      <c r="AB114" s="15"/>
+      <c r="AC114" s="15"/>
+      <c r="AD114" s="15"/>
+      <c r="AE114" s="15"/>
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15"/>
+      <c r="AH114" s="15"/>
+      <c r="AI114" s="15"/>
+      <c r="AJ114" s="15"/>
+      <c r="AK114" s="15"/>
+      <c r="AL114" s="15"/>
+      <c r="AM114" s="15"/>
+      <c r="AN114" s="15"/>
+      <c r="AO114" s="15"/>
+      <c r="AP114" s="15"/>
+      <c r="AQ114" s="15"/>
+      <c r="AR114" s="15"/>
+      <c r="AS114" s="15"/>
+      <c r="AT114" s="15"/>
+      <c r="AU114" s="15"/>
+      <c r="AV114" s="15"/>
+      <c r="AW114" s="15"/>
+      <c r="AX114" s="15"/>
+      <c r="AY114" s="15"/>
+    </row>
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="15"/>
+      <c r="U115" s="15"/>
+      <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="15"/>
+      <c r="Z115" s="15"/>
+      <c r="AA115" s="15"/>
+      <c r="AB115" s="15"/>
+      <c r="AC115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AE115" s="15"/>
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="15"/>
+      <c r="AH115" s="15"/>
+      <c r="AI115" s="15"/>
+      <c r="AJ115" s="15"/>
+      <c r="AK115" s="15"/>
+      <c r="AL115" s="15"/>
+      <c r="AM115" s="15"/>
+      <c r="AN115" s="15"/>
+      <c r="AO115" s="15"/>
+      <c r="AP115" s="15"/>
+      <c r="AQ115" s="15"/>
+      <c r="AR115" s="15"/>
+      <c r="AS115" s="15"/>
+      <c r="AT115" s="15"/>
+      <c r="AU115" s="15"/>
+      <c r="AV115" s="15"/>
+      <c r="AW115" s="15"/>
+      <c r="AX115" s="15"/>
+      <c r="AY115" s="15"/>
+    </row>
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="15"/>
+      <c r="S116" s="15"/>
+      <c r="T116" s="15"/>
+      <c r="U116" s="15"/>
+      <c r="V116" s="15"/>
+      <c r="W116" s="15"/>
+      <c r="X116" s="15"/>
+      <c r="Y116" s="15"/>
+      <c r="Z116" s="15"/>
+      <c r="AA116" s="15"/>
+      <c r="AB116" s="15"/>
+      <c r="AC116" s="15"/>
+      <c r="AD116" s="15"/>
+      <c r="AE116" s="15"/>
+      <c r="AF116" s="15"/>
+      <c r="AG116" s="15"/>
+      <c r="AH116" s="15"/>
+      <c r="AI116" s="15"/>
+      <c r="AJ116" s="15"/>
+      <c r="AK116" s="15"/>
+      <c r="AL116" s="15"/>
+      <c r="AM116" s="15"/>
+      <c r="AN116" s="15"/>
+      <c r="AO116" s="15"/>
+      <c r="AP116" s="15"/>
+      <c r="AQ116" s="15"/>
+      <c r="AR116" s="15"/>
+      <c r="AS116" s="15"/>
+      <c r="AT116" s="15"/>
+      <c r="AU116" s="15"/>
+      <c r="AV116" s="15"/>
+      <c r="AW116" s="15"/>
+      <c r="AX116" s="15"/>
+      <c r="AY116" s="15"/>
+    </row>
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="15"/>
+      <c r="W117" s="15"/>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="15"/>
+      <c r="Z117" s="15"/>
+      <c r="AA117" s="15"/>
+      <c r="AB117" s="15"/>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="15"/>
+      <c r="AF117" s="15"/>
+      <c r="AG117" s="15"/>
+      <c r="AH117" s="15"/>
+      <c r="AI117" s="15"/>
+      <c r="AJ117" s="15"/>
+      <c r="AK117" s="15"/>
+      <c r="AL117" s="15"/>
+      <c r="AM117" s="15"/>
+      <c r="AN117" s="15"/>
+      <c r="AO117" s="15"/>
+      <c r="AP117" s="15"/>
+      <c r="AQ117" s="15"/>
+      <c r="AR117" s="15"/>
+      <c r="AS117" s="15"/>
+      <c r="AT117" s="15"/>
+      <c r="AU117" s="15"/>
+      <c r="AV117" s="15"/>
+      <c r="AW117" s="15"/>
+      <c r="AX117" s="15"/>
+      <c r="AY117" s="15"/>
+    </row>
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="15"/>
+      <c r="S118" s="15"/>
+      <c r="T118" s="15"/>
+      <c r="U118" s="15"/>
+      <c r="V118" s="15"/>
+      <c r="W118" s="15"/>
+      <c r="X118" s="15"/>
+      <c r="Y118" s="15"/>
+      <c r="Z118" s="15"/>
+      <c r="AA118" s="15"/>
+      <c r="AB118" s="15"/>
+      <c r="AC118" s="15"/>
+      <c r="AD118" s="15"/>
+      <c r="AE118" s="15"/>
+      <c r="AF118" s="15"/>
+      <c r="AG118" s="15"/>
+      <c r="AH118" s="15"/>
+      <c r="AI118" s="15"/>
+      <c r="AJ118" s="15"/>
+      <c r="AK118" s="15"/>
+      <c r="AL118" s="15"/>
+      <c r="AM118" s="15"/>
+      <c r="AN118" s="15"/>
+      <c r="AO118" s="15"/>
+      <c r="AP118" s="15"/>
+      <c r="AQ118" s="15"/>
+      <c r="AR118" s="15"/>
+      <c r="AS118" s="15"/>
+      <c r="AT118" s="15"/>
+      <c r="AU118" s="15"/>
+      <c r="AV118" s="15"/>
+      <c r="AW118" s="15"/>
+      <c r="AX118" s="15"/>
+      <c r="AY118" s="15"/>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="15"/>
+      <c r="U119" s="15"/>
+      <c r="V119" s="15"/>
+      <c r="W119" s="15"/>
+      <c r="X119" s="15"/>
+      <c r="Y119" s="15"/>
+      <c r="Z119" s="15"/>
+      <c r="AA119" s="15"/>
+      <c r="AB119" s="15"/>
+      <c r="AC119" s="15"/>
+      <c r="AD119" s="15"/>
+      <c r="AE119" s="15"/>
+      <c r="AF119" s="15"/>
+      <c r="AG119" s="15"/>
+      <c r="AH119" s="15"/>
+      <c r="AI119" s="15"/>
+      <c r="AJ119" s="15"/>
+      <c r="AK119" s="15"/>
+      <c r="AL119" s="15"/>
+      <c r="AM119" s="15"/>
+      <c r="AN119" s="15"/>
+      <c r="AO119" s="15"/>
+      <c r="AP119" s="15"/>
+      <c r="AQ119" s="15"/>
+      <c r="AR119" s="15"/>
+      <c r="AS119" s="15"/>
+      <c r="AT119" s="15"/>
+      <c r="AU119" s="15"/>
+      <c r="AV119" s="15"/>
+      <c r="AW119" s="15"/>
+      <c r="AX119" s="15"/>
+      <c r="AY119" s="15"/>
+    </row>
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="15"/>
+      <c r="S120" s="15"/>
+      <c r="T120" s="15"/>
+      <c r="U120" s="15"/>
+      <c r="V120" s="15"/>
+      <c r="W120" s="15"/>
+      <c r="X120" s="15"/>
+      <c r="Y120" s="15"/>
+      <c r="Z120" s="15"/>
+      <c r="AA120" s="15"/>
+      <c r="AB120" s="15"/>
+      <c r="AC120" s="15"/>
+      <c r="AD120" s="15"/>
+      <c r="AE120" s="15"/>
+      <c r="AF120" s="15"/>
+      <c r="AG120" s="15"/>
+      <c r="AH120" s="15"/>
+      <c r="AI120" s="15"/>
+      <c r="AJ120" s="15"/>
+      <c r="AK120" s="15"/>
+      <c r="AL120" s="15"/>
+      <c r="AM120" s="15"/>
+      <c r="AN120" s="15"/>
+      <c r="AO120" s="15"/>
+      <c r="AP120" s="15"/>
+      <c r="AQ120" s="15"/>
+      <c r="AR120" s="15"/>
+      <c r="AS120" s="15"/>
+      <c r="AT120" s="15"/>
+      <c r="AU120" s="15"/>
+      <c r="AV120" s="15"/>
+      <c r="AW120" s="15"/>
+      <c r="AX120" s="15"/>
+      <c r="AY120" s="15"/>
+    </row>
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="15"/>
+      <c r="S121" s="15"/>
+      <c r="T121" s="15"/>
+      <c r="U121" s="15"/>
+      <c r="V121" s="15"/>
+      <c r="W121" s="15"/>
+      <c r="X121" s="15"/>
+      <c r="Y121" s="15"/>
+      <c r="Z121" s="15"/>
+      <c r="AA121" s="15"/>
+      <c r="AB121" s="15"/>
+      <c r="AC121" s="15"/>
+      <c r="AD121" s="15"/>
+      <c r="AE121" s="15"/>
+      <c r="AF121" s="15"/>
+      <c r="AG121" s="15"/>
+      <c r="AH121" s="15"/>
+      <c r="AI121" s="15"/>
+      <c r="AJ121" s="15"/>
+      <c r="AK121" s="15"/>
+      <c r="AL121" s="15"/>
+      <c r="AM121" s="15"/>
+      <c r="AN121" s="15"/>
+      <c r="AO121" s="15"/>
+      <c r="AP121" s="15"/>
+      <c r="AQ121" s="15"/>
+      <c r="AR121" s="15"/>
+      <c r="AS121" s="15"/>
+      <c r="AT121" s="15"/>
+      <c r="AU121" s="15"/>
+      <c r="AV121" s="15"/>
+      <c r="AW121" s="15"/>
+      <c r="AX121" s="15"/>
+      <c r="AY121" s="15"/>
+    </row>
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="15"/>
+      <c r="U122" s="15"/>
+      <c r="V122" s="15"/>
+      <c r="W122" s="15"/>
+      <c r="X122" s="15"/>
+      <c r="Y122" s="15"/>
+      <c r="Z122" s="15"/>
+      <c r="AA122" s="15"/>
+      <c r="AB122" s="15"/>
+      <c r="AC122" s="15"/>
+      <c r="AD122" s="15"/>
+      <c r="AE122" s="15"/>
+      <c r="AF122" s="15"/>
+      <c r="AG122" s="15"/>
+      <c r="AH122" s="15"/>
+      <c r="AI122" s="15"/>
+      <c r="AJ122" s="15"/>
+      <c r="AK122" s="15"/>
+      <c r="AL122" s="15"/>
+      <c r="AM122" s="15"/>
+      <c r="AN122" s="15"/>
+      <c r="AO122" s="15"/>
+      <c r="AP122" s="15"/>
+      <c r="AQ122" s="15"/>
+      <c r="AR122" s="15"/>
+      <c r="AS122" s="15"/>
+      <c r="AT122" s="15"/>
+      <c r="AU122" s="15"/>
+      <c r="AV122" s="15"/>
+      <c r="AW122" s="15"/>
+      <c r="AX122" s="15"/>
+      <c r="AY122" s="15"/>
+    </row>
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="15"/>
+      <c r="S123" s="15"/>
+      <c r="T123" s="15"/>
+      <c r="U123" s="15"/>
+      <c r="V123" s="15"/>
+      <c r="W123" s="15"/>
+      <c r="X123" s="15"/>
+      <c r="Y123" s="15"/>
+      <c r="Z123" s="15"/>
+      <c r="AA123" s="15"/>
+      <c r="AB123" s="15"/>
+      <c r="AC123" s="15"/>
+      <c r="AD123" s="15"/>
+      <c r="AE123" s="15"/>
+      <c r="AF123" s="15"/>
+      <c r="AG123" s="15"/>
+      <c r="AH123" s="15"/>
+      <c r="AI123" s="15"/>
+      <c r="AJ123" s="15"/>
+      <c r="AK123" s="15"/>
+      <c r="AL123" s="15"/>
+      <c r="AM123" s="15"/>
+      <c r="AN123" s="15"/>
+      <c r="AO123" s="15"/>
+      <c r="AP123" s="15"/>
+      <c r="AQ123" s="15"/>
+      <c r="AR123" s="15"/>
+      <c r="AS123" s="15"/>
+      <c r="AT123" s="15"/>
+      <c r="AU123" s="15"/>
+      <c r="AV123" s="15"/>
+      <c r="AW123" s="15"/>
+      <c r="AX123" s="15"/>
+      <c r="AY123" s="15"/>
+    </row>
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15"/>
+      <c r="S124" s="15"/>
+      <c r="T124" s="15"/>
+      <c r="U124" s="15"/>
+      <c r="V124" s="15"/>
+      <c r="W124" s="15"/>
+      <c r="X124" s="15"/>
+      <c r="Y124" s="15"/>
+      <c r="Z124" s="15"/>
+      <c r="AA124" s="15"/>
+      <c r="AB124" s="15"/>
+      <c r="AC124" s="15"/>
+      <c r="AD124" s="15"/>
+      <c r="AE124" s="15"/>
+      <c r="AF124" s="15"/>
+      <c r="AG124" s="15"/>
+      <c r="AH124" s="15"/>
+      <c r="AI124" s="15"/>
+      <c r="AJ124" s="15"/>
+      <c r="AK124" s="15"/>
+      <c r="AL124" s="15"/>
+      <c r="AM124" s="15"/>
+      <c r="AN124" s="15"/>
+      <c r="AO124" s="15"/>
+      <c r="AP124" s="15"/>
+      <c r="AQ124" s="15"/>
+      <c r="AR124" s="15"/>
+      <c r="AS124" s="15"/>
+      <c r="AT124" s="15"/>
+      <c r="AU124" s="15"/>
+      <c r="AV124" s="15"/>
+      <c r="AW124" s="15"/>
+      <c r="AX124" s="15"/>
+      <c r="AY124" s="15"/>
+    </row>
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
+      <c r="S125" s="15"/>
+      <c r="T125" s="15"/>
+      <c r="U125" s="15"/>
+      <c r="V125" s="15"/>
+      <c r="W125" s="15"/>
+      <c r="X125" s="15"/>
+      <c r="Y125" s="15"/>
+      <c r="Z125" s="15"/>
+      <c r="AA125" s="15"/>
+      <c r="AB125" s="15"/>
+      <c r="AC125" s="15"/>
+      <c r="AD125" s="15"/>
+      <c r="AE125" s="15"/>
+      <c r="AF125" s="15"/>
+      <c r="AG125" s="15"/>
+      <c r="AH125" s="15"/>
+      <c r="AI125" s="15"/>
+      <c r="AJ125" s="15"/>
+      <c r="AK125" s="15"/>
+      <c r="AL125" s="15"/>
+      <c r="AM125" s="15"/>
+      <c r="AN125" s="15"/>
+      <c r="AO125" s="15"/>
+      <c r="AP125" s="15"/>
+      <c r="AQ125" s="15"/>
+      <c r="AR125" s="15"/>
+      <c r="AS125" s="15"/>
+      <c r="AT125" s="15"/>
+      <c r="AU125" s="15"/>
+      <c r="AV125" s="15"/>
+      <c r="AW125" s="15"/>
+      <c r="AX125" s="15"/>
+      <c r="AY125" s="15"/>
+    </row>
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
+      <c r="S126" s="15"/>
+      <c r="T126" s="15"/>
+      <c r="U126" s="15"/>
+      <c r="V126" s="15"/>
+      <c r="W126" s="15"/>
+      <c r="X126" s="15"/>
+      <c r="Y126" s="15"/>
+      <c r="Z126" s="15"/>
+      <c r="AA126" s="15"/>
+      <c r="AB126" s="15"/>
+      <c r="AC126" s="15"/>
+      <c r="AD126" s="15"/>
+      <c r="AE126" s="15"/>
+      <c r="AF126" s="15"/>
+      <c r="AG126" s="15"/>
+      <c r="AH126" s="15"/>
+      <c r="AI126" s="15"/>
+      <c r="AJ126" s="15"/>
+      <c r="AK126" s="15"/>
+      <c r="AL126" s="15"/>
+      <c r="AM126" s="15"/>
+      <c r="AN126" s="15"/>
+      <c r="AO126" s="15"/>
+      <c r="AP126" s="15"/>
+      <c r="AQ126" s="15"/>
+      <c r="AR126" s="15"/>
+      <c r="AS126" s="15"/>
+      <c r="AT126" s="15"/>
+      <c r="AU126" s="15"/>
+      <c r="AV126" s="15"/>
+      <c r="AW126" s="15"/>
+      <c r="AX126" s="15"/>
+      <c r="AY126" s="15"/>
+    </row>
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="15"/>
+      <c r="S127" s="15"/>
+      <c r="T127" s="15"/>
+      <c r="U127" s="15"/>
+      <c r="V127" s="15"/>
+      <c r="W127" s="15"/>
+      <c r="X127" s="15"/>
+      <c r="Y127" s="15"/>
+      <c r="Z127" s="15"/>
+      <c r="AA127" s="15"/>
+      <c r="AB127" s="15"/>
+      <c r="AC127" s="15"/>
+      <c r="AD127" s="15"/>
+      <c r="AE127" s="15"/>
+      <c r="AF127" s="15"/>
+      <c r="AG127" s="15"/>
+      <c r="AH127" s="15"/>
+      <c r="AI127" s="15"/>
+      <c r="AJ127" s="15"/>
+      <c r="AK127" s="15"/>
+      <c r="AL127" s="15"/>
+      <c r="AM127" s="15"/>
+      <c r="AN127" s="15"/>
+      <c r="AO127" s="15"/>
+      <c r="AP127" s="15"/>
+      <c r="AQ127" s="15"/>
+      <c r="AR127" s="15"/>
+      <c r="AS127" s="15"/>
+      <c r="AT127" s="15"/>
+      <c r="AU127" s="15"/>
+      <c r="AV127" s="15"/>
+      <c r="AW127" s="15"/>
+      <c r="AX127" s="15"/>
+      <c r="AY127" s="15"/>
+    </row>
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
+      <c r="S128" s="15"/>
+      <c r="T128" s="15"/>
+      <c r="U128" s="15"/>
+      <c r="V128" s="15"/>
+      <c r="W128" s="15"/>
+      <c r="X128" s="15"/>
+      <c r="Y128" s="15"/>
+      <c r="Z128" s="15"/>
+      <c r="AA128" s="15"/>
+      <c r="AB128" s="15"/>
+      <c r="AC128" s="15"/>
+      <c r="AD128" s="15"/>
+      <c r="AE128" s="15"/>
+      <c r="AF128" s="15"/>
+      <c r="AG128" s="15"/>
+      <c r="AH128" s="15"/>
+      <c r="AI128" s="15"/>
+      <c r="AJ128" s="15"/>
+      <c r="AK128" s="15"/>
+      <c r="AL128" s="15"/>
+      <c r="AM128" s="15"/>
+      <c r="AN128" s="15"/>
+      <c r="AO128" s="15"/>
+      <c r="AP128" s="15"/>
+      <c r="AQ128" s="15"/>
+      <c r="AR128" s="15"/>
+      <c r="AS128" s="15"/>
+      <c r="AT128" s="15"/>
+      <c r="AU128" s="15"/>
+      <c r="AV128" s="15"/>
+      <c r="AW128" s="15"/>
+      <c r="AX128" s="15"/>
+      <c r="AY128" s="15"/>
+    </row>
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
+      <c r="S129" s="15"/>
+      <c r="T129" s="15"/>
+      <c r="U129" s="15"/>
+      <c r="V129" s="15"/>
+      <c r="W129" s="15"/>
+      <c r="X129" s="15"/>
+      <c r="Y129" s="15"/>
+      <c r="Z129" s="15"/>
+      <c r="AA129" s="15"/>
+      <c r="AB129" s="15"/>
+      <c r="AC129" s="15"/>
+      <c r="AD129" s="15"/>
+      <c r="AE129" s="15"/>
+      <c r="AF129" s="15"/>
+      <c r="AG129" s="15"/>
+      <c r="AH129" s="15"/>
+      <c r="AI129" s="15"/>
+      <c r="AJ129" s="15"/>
+      <c r="AK129" s="15"/>
+      <c r="AL129" s="15"/>
+      <c r="AM129" s="15"/>
+      <c r="AN129" s="15"/>
+      <c r="AO129" s="15"/>
+      <c r="AP129" s="15"/>
+      <c r="AQ129" s="15"/>
+      <c r="AR129" s="15"/>
+      <c r="AS129" s="15"/>
+      <c r="AT129" s="15"/>
+      <c r="AU129" s="15"/>
+      <c r="AV129" s="15"/>
+      <c r="AW129" s="15"/>
+      <c r="AX129" s="15"/>
+      <c r="AY129" s="15"/>
+    </row>
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+      <c r="S130" s="15"/>
+      <c r="T130" s="15"/>
+      <c r="U130" s="15"/>
+      <c r="V130" s="15"/>
+      <c r="W130" s="15"/>
+      <c r="X130" s="15"/>
+      <c r="Y130" s="15"/>
+      <c r="Z130" s="15"/>
+      <c r="AA130" s="15"/>
+      <c r="AB130" s="15"/>
+      <c r="AC130" s="15"/>
+      <c r="AD130" s="15"/>
+      <c r="AE130" s="15"/>
+      <c r="AF130" s="15"/>
+      <c r="AG130" s="15"/>
+      <c r="AH130" s="15"/>
+      <c r="AI130" s="15"/>
+      <c r="AJ130" s="15"/>
+      <c r="AK130" s="15"/>
+      <c r="AL130" s="15"/>
+      <c r="AM130" s="15"/>
+      <c r="AN130" s="15"/>
+      <c r="AO130" s="15"/>
+      <c r="AP130" s="15"/>
+      <c r="AQ130" s="15"/>
+      <c r="AR130" s="15"/>
+      <c r="AS130" s="15"/>
+      <c r="AT130" s="15"/>
+      <c r="AU130" s="15"/>
+      <c r="AV130" s="15"/>
+      <c r="AW130" s="15"/>
+      <c r="AX130" s="15"/>
+      <c r="AY130" s="15"/>
+    </row>
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
+      <c r="S131" s="15"/>
+      <c r="T131" s="15"/>
+      <c r="U131" s="15"/>
+      <c r="V131" s="15"/>
+      <c r="W131" s="15"/>
+      <c r="X131" s="15"/>
+      <c r="Y131" s="15"/>
+      <c r="Z131" s="15"/>
+      <c r="AA131" s="15"/>
+      <c r="AB131" s="15"/>
+      <c r="AC131" s="15"/>
+      <c r="AD131" s="15"/>
+      <c r="AE131" s="15"/>
+      <c r="AF131" s="15"/>
+      <c r="AG131" s="15"/>
+      <c r="AH131" s="15"/>
+      <c r="AI131" s="15"/>
+      <c r="AJ131" s="15"/>
+      <c r="AK131" s="15"/>
+      <c r="AL131" s="15"/>
+      <c r="AM131" s="15"/>
+      <c r="AN131" s="15"/>
+      <c r="AO131" s="15"/>
+      <c r="AP131" s="15"/>
+      <c r="AQ131" s="15"/>
+      <c r="AR131" s="15"/>
+      <c r="AS131" s="15"/>
+      <c r="AT131" s="15"/>
+      <c r="AU131" s="15"/>
+      <c r="AV131" s="15"/>
+      <c r="AW131" s="15"/>
+      <c r="AX131" s="15"/>
+      <c r="AY131" s="15"/>
+    </row>
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
+      <c r="S132" s="15"/>
+      <c r="T132" s="15"/>
+      <c r="U132" s="15"/>
+      <c r="V132" s="15"/>
+      <c r="W132" s="15"/>
+      <c r="X132" s="15"/>
+      <c r="Y132" s="15"/>
+      <c r="Z132" s="15"/>
+      <c r="AA132" s="15"/>
+      <c r="AB132" s="15"/>
+      <c r="AC132" s="15"/>
+      <c r="AD132" s="15"/>
+      <c r="AE132" s="15"/>
+      <c r="AF132" s="15"/>
+      <c r="AG132" s="15"/>
+      <c r="AH132" s="15"/>
+      <c r="AI132" s="15"/>
+      <c r="AJ132" s="15"/>
+      <c r="AK132" s="15"/>
+      <c r="AL132" s="15"/>
+      <c r="AM132" s="15"/>
+      <c r="AN132" s="15"/>
+      <c r="AO132" s="15"/>
+      <c r="AP132" s="15"/>
+      <c r="AQ132" s="15"/>
+      <c r="AR132" s="15"/>
+      <c r="AS132" s="15"/>
+      <c r="AT132" s="15"/>
+      <c r="AU132" s="15"/>
+      <c r="AV132" s="15"/>
+      <c r="AW132" s="15"/>
+      <c r="AX132" s="15"/>
+      <c r="AY132" s="15"/>
+    </row>
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="15"/>
+      <c r="S133" s="15"/>
+      <c r="T133" s="15"/>
+      <c r="U133" s="15"/>
+      <c r="V133" s="15"/>
+      <c r="W133" s="15"/>
+      <c r="X133" s="15"/>
+      <c r="Y133" s="15"/>
+      <c r="Z133" s="15"/>
+      <c r="AA133" s="15"/>
+      <c r="AB133" s="15"/>
+      <c r="AC133" s="15"/>
+      <c r="AD133" s="15"/>
+      <c r="AE133" s="15"/>
+      <c r="AF133" s="15"/>
+      <c r="AG133" s="15"/>
+      <c r="AH133" s="15"/>
+      <c r="AI133" s="15"/>
+      <c r="AJ133" s="15"/>
+      <c r="AK133" s="15"/>
+      <c r="AL133" s="15"/>
+      <c r="AM133" s="15"/>
+      <c r="AN133" s="15"/>
+      <c r="AO133" s="15"/>
+      <c r="AP133" s="15"/>
+      <c r="AQ133" s="15"/>
+      <c r="AR133" s="15"/>
+      <c r="AS133" s="15"/>
+      <c r="AT133" s="15"/>
+      <c r="AU133" s="15"/>
+      <c r="AV133" s="15"/>
+      <c r="AW133" s="15"/>
+      <c r="AX133" s="15"/>
+      <c r="AY133" s="15"/>
+    </row>
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
+      <c r="S134" s="15"/>
+      <c r="T134" s="15"/>
+      <c r="U134" s="15"/>
+      <c r="V134" s="15"/>
+      <c r="W134" s="15"/>
+      <c r="X134" s="15"/>
+      <c r="Y134" s="15"/>
+      <c r="Z134" s="15"/>
+      <c r="AA134" s="15"/>
+      <c r="AB134" s="15"/>
+      <c r="AC134" s="15"/>
+      <c r="AD134" s="15"/>
+      <c r="AE134" s="15"/>
+      <c r="AF134" s="15"/>
+      <c r="AG134" s="15"/>
+      <c r="AH134" s="15"/>
+      <c r="AI134" s="15"/>
+      <c r="AJ134" s="15"/>
+      <c r="AK134" s="15"/>
+      <c r="AL134" s="15"/>
+      <c r="AM134" s="15"/>
+      <c r="AN134" s="15"/>
+      <c r="AO134" s="15"/>
+      <c r="AP134" s="15"/>
+      <c r="AQ134" s="15"/>
+      <c r="AR134" s="15"/>
+      <c r="AS134" s="15"/>
+      <c r="AT134" s="15"/>
+      <c r="AU134" s="15"/>
+      <c r="AV134" s="15"/>
+      <c r="AW134" s="15"/>
+      <c r="AX134" s="15"/>
+      <c r="AY134" s="15"/>
+    </row>
+    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+      <c r="X135" s="15"/>
+      <c r="Y135" s="15"/>
+      <c r="Z135" s="15"/>
+      <c r="AA135" s="15"/>
+      <c r="AB135" s="15"/>
+      <c r="AC135" s="15"/>
+      <c r="AD135" s="15"/>
+      <c r="AE135" s="15"/>
+      <c r="AF135" s="15"/>
+      <c r="AG135" s="15"/>
+      <c r="AH135" s="15"/>
+      <c r="AI135" s="15"/>
+      <c r="AJ135" s="15"/>
+      <c r="AK135" s="15"/>
+      <c r="AL135" s="15"/>
+      <c r="AM135" s="15"/>
+      <c r="AN135" s="15"/>
+      <c r="AO135" s="15"/>
+      <c r="AP135" s="15"/>
+      <c r="AQ135" s="15"/>
+      <c r="AR135" s="15"/>
+      <c r="AS135" s="15"/>
+      <c r="AT135" s="15"/>
+      <c r="AU135" s="15"/>
+      <c r="AV135" s="15"/>
+      <c r="AW135" s="15"/>
+      <c r="AX135" s="15"/>
+      <c r="AY135" s="15"/>
+    </row>
+    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
+      <c r="S136" s="15"/>
+      <c r="T136" s="15"/>
+      <c r="U136" s="15"/>
+      <c r="V136" s="15"/>
+      <c r="W136" s="15"/>
+      <c r="X136" s="15"/>
+      <c r="Y136" s="15"/>
+      <c r="Z136" s="15"/>
+      <c r="AA136" s="15"/>
+      <c r="AB136" s="15"/>
+      <c r="AC136" s="15"/>
+      <c r="AD136" s="15"/>
+      <c r="AE136" s="15"/>
+      <c r="AF136" s="15"/>
+      <c r="AG136" s="15"/>
+      <c r="AH136" s="15"/>
+      <c r="AI136" s="15"/>
+      <c r="AJ136" s="15"/>
+      <c r="AK136" s="15"/>
+      <c r="AL136" s="15"/>
+      <c r="AM136" s="15"/>
+      <c r="AN136" s="15"/>
+      <c r="AO136" s="15"/>
+      <c r="AP136" s="15"/>
+      <c r="AQ136" s="15"/>
+      <c r="AR136" s="15"/>
+      <c r="AS136" s="15"/>
+      <c r="AT136" s="15"/>
+      <c r="AU136" s="15"/>
+      <c r="AV136" s="15"/>
+      <c r="AW136" s="15"/>
+      <c r="AX136" s="15"/>
+      <c r="AY136" s="15"/>
+    </row>
+    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
+      <c r="S137" s="15"/>
+      <c r="T137" s="15"/>
+      <c r="U137" s="15"/>
+      <c r="V137" s="15"/>
+      <c r="W137" s="15"/>
+      <c r="X137" s="15"/>
+      <c r="Y137" s="15"/>
+      <c r="Z137" s="15"/>
+      <c r="AA137" s="15"/>
+      <c r="AB137" s="15"/>
+      <c r="AC137" s="15"/>
+      <c r="AD137" s="15"/>
+      <c r="AE137" s="15"/>
+      <c r="AF137" s="15"/>
+      <c r="AG137" s="15"/>
+      <c r="AH137" s="15"/>
+      <c r="AI137" s="15"/>
+      <c r="AJ137" s="15"/>
+      <c r="AK137" s="15"/>
+      <c r="AL137" s="15"/>
+      <c r="AM137" s="15"/>
+      <c r="AN137" s="15"/>
+      <c r="AO137" s="15"/>
+      <c r="AP137" s="15"/>
+      <c r="AQ137" s="15"/>
+      <c r="AR137" s="15"/>
+      <c r="AS137" s="15"/>
+      <c r="AT137" s="15"/>
+      <c r="AU137" s="15"/>
+      <c r="AV137" s="15"/>
+      <c r="AW137" s="15"/>
+      <c r="AX137" s="15"/>
+      <c r="AY137" s="15"/>
+    </row>
+    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
+      <c r="S138" s="15"/>
+      <c r="T138" s="15"/>
+      <c r="U138" s="15"/>
+      <c r="V138" s="15"/>
+      <c r="W138" s="15"/>
+      <c r="X138" s="15"/>
+      <c r="Y138" s="15"/>
+      <c r="Z138" s="15"/>
+      <c r="AA138" s="15"/>
+      <c r="AB138" s="15"/>
+      <c r="AC138" s="15"/>
+      <c r="AD138" s="15"/>
+      <c r="AE138" s="15"/>
+      <c r="AF138" s="15"/>
+      <c r="AG138" s="15"/>
+      <c r="AH138" s="15"/>
+      <c r="AI138" s="15"/>
+      <c r="AJ138" s="15"/>
+      <c r="AK138" s="15"/>
+      <c r="AL138" s="15"/>
+      <c r="AM138" s="15"/>
+      <c r="AN138" s="15"/>
+      <c r="AO138" s="15"/>
+      <c r="AP138" s="15"/>
+      <c r="AQ138" s="15"/>
+      <c r="AR138" s="15"/>
+      <c r="AS138" s="15"/>
+      <c r="AT138" s="15"/>
+      <c r="AU138" s="15"/>
+      <c r="AV138" s="15"/>
+      <c r="AW138" s="15"/>
+      <c r="AX138" s="15"/>
+      <c r="AY138" s="15"/>
+    </row>
+    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
+      <c r="S139" s="15"/>
+      <c r="T139" s="15"/>
+      <c r="U139" s="15"/>
+      <c r="V139" s="15"/>
+      <c r="W139" s="15"/>
+      <c r="X139" s="15"/>
+      <c r="Y139" s="15"/>
+      <c r="Z139" s="15"/>
+      <c r="AA139" s="15"/>
+      <c r="AB139" s="15"/>
+      <c r="AC139" s="15"/>
+      <c r="AD139" s="15"/>
+      <c r="AE139" s="15"/>
+      <c r="AF139" s="15"/>
+      <c r="AG139" s="15"/>
+      <c r="AH139" s="15"/>
+      <c r="AI139" s="15"/>
+      <c r="AJ139" s="15"/>
+      <c r="AK139" s="15"/>
+      <c r="AL139" s="15"/>
+      <c r="AM139" s="15"/>
+      <c r="AN139" s="15"/>
+      <c r="AO139" s="15"/>
+      <c r="AP139" s="15"/>
+      <c r="AQ139" s="15"/>
+      <c r="AR139" s="15"/>
+      <c r="AS139" s="15"/>
+      <c r="AT139" s="15"/>
+      <c r="AU139" s="15"/>
+      <c r="AV139" s="15"/>
+      <c r="AW139" s="15"/>
+      <c r="AX139" s="15"/>
+      <c r="AY139" s="15"/>
+    </row>
+    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+      <c r="R140" s="15"/>
+      <c r="S140" s="15"/>
+      <c r="T140" s="15"/>
+      <c r="U140" s="15"/>
+      <c r="V140" s="15"/>
+      <c r="W140" s="15"/>
+      <c r="X140" s="15"/>
+      <c r="Y140" s="15"/>
+      <c r="Z140" s="15"/>
+      <c r="AA140" s="15"/>
+      <c r="AB140" s="15"/>
+      <c r="AC140" s="15"/>
+      <c r="AD140" s="15"/>
+      <c r="AE140" s="15"/>
+      <c r="AF140" s="15"/>
+      <c r="AG140" s="15"/>
+      <c r="AH140" s="15"/>
+      <c r="AI140" s="15"/>
+      <c r="AJ140" s="15"/>
+      <c r="AK140" s="15"/>
+      <c r="AL140" s="15"/>
+      <c r="AM140" s="15"/>
+      <c r="AN140" s="15"/>
+      <c r="AO140" s="15"/>
+      <c r="AP140" s="15"/>
+      <c r="AQ140" s="15"/>
+      <c r="AR140" s="15"/>
+      <c r="AS140" s="15"/>
+      <c r="AT140" s="15"/>
+      <c r="AU140" s="15"/>
+      <c r="AV140" s="15"/>
+      <c r="AW140" s="15"/>
+      <c r="AX140" s="15"/>
+      <c r="AY140" s="15"/>
+    </row>
+    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+      <c r="R141" s="15"/>
+      <c r="S141" s="15"/>
+      <c r="T141" s="15"/>
+      <c r="U141" s="15"/>
+      <c r="V141" s="15"/>
+      <c r="W141" s="15"/>
+      <c r="X141" s="15"/>
+      <c r="Y141" s="15"/>
+      <c r="Z141" s="15"/>
+      <c r="AA141" s="15"/>
+      <c r="AB141" s="15"/>
+      <c r="AC141" s="15"/>
+      <c r="AD141" s="15"/>
+      <c r="AE141" s="15"/>
+      <c r="AF141" s="15"/>
+      <c r="AG141" s="15"/>
+      <c r="AH141" s="15"/>
+      <c r="AI141" s="15"/>
+      <c r="AJ141" s="15"/>
+      <c r="AK141" s="15"/>
+      <c r="AL141" s="15"/>
+      <c r="AM141" s="15"/>
+      <c r="AN141" s="15"/>
+      <c r="AO141" s="15"/>
+      <c r="AP141" s="15"/>
+      <c r="AQ141" s="15"/>
+      <c r="AR141" s="15"/>
+      <c r="AS141" s="15"/>
+      <c r="AT141" s="15"/>
+      <c r="AU141" s="15"/>
+      <c r="AV141" s="15"/>
+      <c r="AW141" s="15"/>
+      <c r="AX141" s="15"/>
+      <c r="AY141" s="15"/>
+    </row>
+    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="15"/>
+      <c r="U142" s="15"/>
+      <c r="V142" s="15"/>
+      <c r="W142" s="15"/>
+      <c r="X142" s="15"/>
+      <c r="Y142" s="15"/>
+      <c r="Z142" s="15"/>
+      <c r="AA142" s="15"/>
+      <c r="AB142" s="15"/>
+      <c r="AC142" s="15"/>
+      <c r="AD142" s="15"/>
+      <c r="AE142" s="15"/>
+      <c r="AF142" s="15"/>
+      <c r="AG142" s="15"/>
+      <c r="AH142" s="15"/>
+      <c r="AI142" s="15"/>
+      <c r="AJ142" s="15"/>
+      <c r="AK142" s="15"/>
+      <c r="AL142" s="15"/>
+      <c r="AM142" s="15"/>
+      <c r="AN142" s="15"/>
+      <c r="AO142" s="15"/>
+      <c r="AP142" s="15"/>
+      <c r="AQ142" s="15"/>
+      <c r="AR142" s="15"/>
+      <c r="AS142" s="15"/>
+      <c r="AT142" s="15"/>
+      <c r="AU142" s="15"/>
+      <c r="AV142" s="15"/>
+      <c r="AW142" s="15"/>
+      <c r="AX142" s="15"/>
+      <c r="AY142" s="15"/>
+    </row>
+    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="15"/>
+      <c r="S143" s="15"/>
+      <c r="T143" s="15"/>
+      <c r="U143" s="15"/>
+      <c r="V143" s="15"/>
+      <c r="W143" s="15"/>
+      <c r="X143" s="15"/>
+      <c r="Y143" s="15"/>
+      <c r="Z143" s="15"/>
+      <c r="AA143" s="15"/>
+      <c r="AB143" s="15"/>
+      <c r="AC143" s="15"/>
+      <c r="AD143" s="15"/>
+      <c r="AE143" s="15"/>
+      <c r="AF143" s="15"/>
+      <c r="AG143" s="15"/>
+      <c r="AH143" s="15"/>
+      <c r="AI143" s="15"/>
+      <c r="AJ143" s="15"/>
+      <c r="AK143" s="15"/>
+      <c r="AL143" s="15"/>
+      <c r="AM143" s="15"/>
+      <c r="AN143" s="15"/>
+      <c r="AO143" s="15"/>
+      <c r="AP143" s="15"/>
+      <c r="AQ143" s="15"/>
+      <c r="AR143" s="15"/>
+      <c r="AS143" s="15"/>
+      <c r="AT143" s="15"/>
+      <c r="AU143" s="15"/>
+      <c r="AV143" s="15"/>
+      <c r="AW143" s="15"/>
+      <c r="AX143" s="15"/>
+      <c r="AY143" s="15"/>
+    </row>
+    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="15"/>
+      <c r="S144" s="15"/>
+      <c r="T144" s="15"/>
+      <c r="U144" s="15"/>
+      <c r="V144" s="15"/>
+      <c r="W144" s="15"/>
+      <c r="X144" s="15"/>
+      <c r="Y144" s="15"/>
+      <c r="Z144" s="15"/>
+      <c r="AA144" s="15"/>
+      <c r="AB144" s="15"/>
+      <c r="AC144" s="15"/>
+      <c r="AD144" s="15"/>
+      <c r="AE144" s="15"/>
+      <c r="AF144" s="15"/>
+      <c r="AG144" s="15"/>
+      <c r="AH144" s="15"/>
+      <c r="AI144" s="15"/>
+      <c r="AJ144" s="15"/>
+      <c r="AK144" s="15"/>
+      <c r="AL144" s="15"/>
+      <c r="AM144" s="15"/>
+      <c r="AN144" s="15"/>
+      <c r="AO144" s="15"/>
+      <c r="AP144" s="15"/>
+      <c r="AQ144" s="15"/>
+      <c r="AR144" s="15"/>
+      <c r="AS144" s="15"/>
+      <c r="AT144" s="15"/>
+      <c r="AU144" s="15"/>
+      <c r="AV144" s="15"/>
+      <c r="AW144" s="15"/>
+      <c r="AX144" s="15"/>
+      <c r="AY144" s="15"/>
+    </row>
+    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="15"/>
+      <c r="U145" s="15"/>
+      <c r="V145" s="15"/>
+      <c r="W145" s="15"/>
+      <c r="X145" s="15"/>
+      <c r="Y145" s="15"/>
+      <c r="Z145" s="15"/>
+      <c r="AA145" s="15"/>
+      <c r="AB145" s="15"/>
+      <c r="AC145" s="15"/>
+      <c r="AD145" s="15"/>
+      <c r="AE145" s="15"/>
+      <c r="AF145" s="15"/>
+      <c r="AG145" s="15"/>
+      <c r="AH145" s="15"/>
+      <c r="AI145" s="15"/>
+      <c r="AJ145" s="15"/>
+      <c r="AK145" s="15"/>
+      <c r="AL145" s="15"/>
+      <c r="AM145" s="15"/>
+      <c r="AN145" s="15"/>
+      <c r="AO145" s="15"/>
+      <c r="AP145" s="15"/>
+      <c r="AQ145" s="15"/>
+      <c r="AR145" s="15"/>
+      <c r="AS145" s="15"/>
+      <c r="AT145" s="15"/>
+      <c r="AU145" s="15"/>
+      <c r="AV145" s="15"/>
+      <c r="AW145" s="15"/>
+      <c r="AX145" s="15"/>
+      <c r="AY145" s="15"/>
+    </row>
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="15"/>
+      <c r="U146" s="15"/>
+      <c r="V146" s="15"/>
+      <c r="W146" s="15"/>
+      <c r="X146" s="15"/>
+      <c r="Y146" s="15"/>
+      <c r="Z146" s="15"/>
+      <c r="AA146" s="15"/>
+      <c r="AB146" s="15"/>
+      <c r="AC146" s="15"/>
+      <c r="AD146" s="15"/>
+      <c r="AE146" s="15"/>
+      <c r="AF146" s="15"/>
+      <c r="AG146" s="15"/>
+      <c r="AH146" s="15"/>
+      <c r="AI146" s="15"/>
+      <c r="AJ146" s="15"/>
+      <c r="AK146" s="15"/>
+      <c r="AL146" s="15"/>
+      <c r="AM146" s="15"/>
+      <c r="AN146" s="15"/>
+      <c r="AO146" s="15"/>
+      <c r="AP146" s="15"/>
+      <c r="AQ146" s="15"/>
+      <c r="AR146" s="15"/>
+      <c r="AS146" s="15"/>
+      <c r="AT146" s="15"/>
+      <c r="AU146" s="15"/>
+      <c r="AV146" s="15"/>
+      <c r="AW146" s="15"/>
+      <c r="AX146" s="15"/>
+      <c r="AY146" s="15"/>
+    </row>
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="15"/>
+      <c r="S147" s="15"/>
+      <c r="T147" s="15"/>
+      <c r="U147" s="15"/>
+      <c r="V147" s="15"/>
+      <c r="W147" s="15"/>
+      <c r="X147" s="15"/>
+      <c r="Y147" s="15"/>
+      <c r="Z147" s="15"/>
+      <c r="AA147" s="15"/>
+      <c r="AB147" s="15"/>
+      <c r="AC147" s="15"/>
+      <c r="AD147" s="15"/>
+      <c r="AE147" s="15"/>
+      <c r="AF147" s="15"/>
+      <c r="AG147" s="15"/>
+      <c r="AH147" s="15"/>
+      <c r="AI147" s="15"/>
+      <c r="AJ147" s="15"/>
+      <c r="AK147" s="15"/>
+      <c r="AL147" s="15"/>
+      <c r="AM147" s="15"/>
+      <c r="AN147" s="15"/>
+      <c r="AO147" s="15"/>
+      <c r="AP147" s="15"/>
+      <c r="AQ147" s="15"/>
+      <c r="AR147" s="15"/>
+      <c r="AS147" s="15"/>
+      <c r="AT147" s="15"/>
+      <c r="AU147" s="15"/>
+      <c r="AV147" s="15"/>
+      <c r="AW147" s="15"/>
+      <c r="AX147" s="15"/>
+      <c r="AY147" s="15"/>
+    </row>
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="15"/>
+      <c r="S148" s="15"/>
+      <c r="T148" s="15"/>
+      <c r="U148" s="15"/>
+      <c r="V148" s="15"/>
+      <c r="W148" s="15"/>
+      <c r="X148" s="15"/>
+      <c r="Y148" s="15"/>
+      <c r="Z148" s="15"/>
+      <c r="AA148" s="15"/>
+      <c r="AB148" s="15"/>
+      <c r="AC148" s="15"/>
+      <c r="AD148" s="15"/>
+      <c r="AE148" s="15"/>
+      <c r="AF148" s="15"/>
+      <c r="AG148" s="15"/>
+      <c r="AH148" s="15"/>
+      <c r="AI148" s="15"/>
+      <c r="AJ148" s="15"/>
+      <c r="AK148" s="15"/>
+      <c r="AL148" s="15"/>
+      <c r="AM148" s="15"/>
+      <c r="AN148" s="15"/>
+      <c r="AO148" s="15"/>
+      <c r="AP148" s="15"/>
+      <c r="AQ148" s="15"/>
+      <c r="AR148" s="15"/>
+      <c r="AS148" s="15"/>
+      <c r="AT148" s="15"/>
+      <c r="AU148" s="15"/>
+      <c r="AV148" s="15"/>
+      <c r="AW148" s="15"/>
+      <c r="AX148" s="15"/>
+      <c r="AY148" s="15"/>
+    </row>
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="15"/>
+      <c r="T149" s="15"/>
+      <c r="U149" s="15"/>
+      <c r="V149" s="15"/>
+      <c r="W149" s="15"/>
+      <c r="X149" s="15"/>
+      <c r="Y149" s="15"/>
+      <c r="Z149" s="15"/>
+      <c r="AA149" s="15"/>
+      <c r="AB149" s="15"/>
+      <c r="AC149" s="15"/>
+      <c r="AD149" s="15"/>
+      <c r="AE149" s="15"/>
+      <c r="AF149" s="15"/>
+      <c r="AG149" s="15"/>
+      <c r="AH149" s="15"/>
+      <c r="AI149" s="15"/>
+      <c r="AJ149" s="15"/>
+      <c r="AK149" s="15"/>
+      <c r="AL149" s="15"/>
+      <c r="AM149" s="15"/>
+      <c r="AN149" s="15"/>
+      <c r="AO149" s="15"/>
+      <c r="AP149" s="15"/>
+      <c r="AQ149" s="15"/>
+      <c r="AR149" s="15"/>
+      <c r="AS149" s="15"/>
+      <c r="AT149" s="15"/>
+      <c r="AU149" s="15"/>
+      <c r="AV149" s="15"/>
+      <c r="AW149" s="15"/>
+      <c r="AX149" s="15"/>
+      <c r="AY149" s="15"/>
+    </row>
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="15"/>
+      <c r="U150" s="15"/>
+      <c r="V150" s="15"/>
+      <c r="W150" s="15"/>
+      <c r="X150" s="15"/>
+      <c r="Y150" s="15"/>
+      <c r="Z150" s="15"/>
+      <c r="AA150" s="15"/>
+      <c r="AB150" s="15"/>
+      <c r="AC150" s="15"/>
+      <c r="AD150" s="15"/>
+      <c r="AE150" s="15"/>
+      <c r="AF150" s="15"/>
+      <c r="AG150" s="15"/>
+      <c r="AH150" s="15"/>
+      <c r="AI150" s="15"/>
+      <c r="AJ150" s="15"/>
+      <c r="AK150" s="15"/>
+      <c r="AL150" s="15"/>
+      <c r="AM150" s="15"/>
+      <c r="AN150" s="15"/>
+      <c r="AO150" s="15"/>
+      <c r="AP150" s="15"/>
+      <c r="AQ150" s="15"/>
+      <c r="AR150" s="15"/>
+      <c r="AS150" s="15"/>
+      <c r="AT150" s="15"/>
+      <c r="AU150" s="15"/>
+      <c r="AV150" s="15"/>
+      <c r="AW150" s="15"/>
+      <c r="AX150" s="15"/>
+      <c r="AY150" s="15"/>
+    </row>
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
+      <c r="S151" s="15"/>
+      <c r="T151" s="15"/>
+      <c r="U151" s="15"/>
+      <c r="V151" s="15"/>
+      <c r="W151" s="15"/>
+      <c r="X151" s="15"/>
+      <c r="Y151" s="15"/>
+      <c r="Z151" s="15"/>
+      <c r="AA151" s="15"/>
+      <c r="AB151" s="15"/>
+      <c r="AC151" s="15"/>
+      <c r="AD151" s="15"/>
+      <c r="AE151" s="15"/>
+      <c r="AF151" s="15"/>
+      <c r="AG151" s="15"/>
+      <c r="AH151" s="15"/>
+      <c r="AI151" s="15"/>
+      <c r="AJ151" s="15"/>
+      <c r="AK151" s="15"/>
+      <c r="AL151" s="15"/>
+      <c r="AM151" s="15"/>
+      <c r="AN151" s="15"/>
+      <c r="AO151" s="15"/>
+      <c r="AP151" s="15"/>
+      <c r="AQ151" s="15"/>
+      <c r="AR151" s="15"/>
+      <c r="AS151" s="15"/>
+      <c r="AT151" s="15"/>
+      <c r="AU151" s="15"/>
+      <c r="AV151" s="15"/>
+      <c r="AW151" s="15"/>
+      <c r="AX151" s="15"/>
+      <c r="AY151" s="15"/>
+    </row>
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="15"/>
+      <c r="R152" s="15"/>
+      <c r="S152" s="15"/>
+      <c r="T152" s="15"/>
+      <c r="U152" s="15"/>
+      <c r="V152" s="15"/>
+      <c r="W152" s="15"/>
+      <c r="X152" s="15"/>
+      <c r="Y152" s="15"/>
+      <c r="Z152" s="15"/>
+      <c r="AA152" s="15"/>
+      <c r="AB152" s="15"/>
+      <c r="AC152" s="15"/>
+      <c r="AD152" s="15"/>
+      <c r="AE152" s="15"/>
+      <c r="AF152" s="15"/>
+      <c r="AG152" s="15"/>
+      <c r="AH152" s="15"/>
+      <c r="AI152" s="15"/>
+      <c r="AJ152" s="15"/>
+      <c r="AK152" s="15"/>
+      <c r="AL152" s="15"/>
+      <c r="AM152" s="15"/>
+      <c r="AN152" s="15"/>
+      <c r="AO152" s="15"/>
+      <c r="AP152" s="15"/>
+      <c r="AQ152" s="15"/>
+      <c r="AR152" s="15"/>
+      <c r="AS152" s="15"/>
+      <c r="AT152" s="15"/>
+      <c r="AU152" s="15"/>
+      <c r="AV152" s="15"/>
+      <c r="AW152" s="15"/>
+      <c r="AX152" s="15"/>
+      <c r="AY152" s="15"/>
+    </row>
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="15"/>
+      <c r="T153" s="15"/>
+      <c r="U153" s="15"/>
+      <c r="V153" s="15"/>
+      <c r="W153" s="15"/>
+      <c r="X153" s="15"/>
+      <c r="Y153" s="15"/>
+      <c r="Z153" s="15"/>
+      <c r="AA153" s="15"/>
+      <c r="AB153" s="15"/>
+      <c r="AC153" s="15"/>
+      <c r="AD153" s="15"/>
+      <c r="AE153" s="15"/>
+      <c r="AF153" s="15"/>
+      <c r="AG153" s="15"/>
+      <c r="AH153" s="15"/>
+      <c r="AI153" s="15"/>
+      <c r="AJ153" s="15"/>
+      <c r="AK153" s="15"/>
+      <c r="AL153" s="15"/>
+      <c r="AM153" s="15"/>
+      <c r="AN153" s="15"/>
+      <c r="AO153" s="15"/>
+      <c r="AP153" s="15"/>
+      <c r="AQ153" s="15"/>
+      <c r="AR153" s="15"/>
+      <c r="AS153" s="15"/>
+      <c r="AT153" s="15"/>
+      <c r="AU153" s="15"/>
+      <c r="AV153" s="15"/>
+      <c r="AW153" s="15"/>
+      <c r="AX153" s="15"/>
+      <c r="AY153" s="15"/>
+    </row>
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+      <c r="O154" s="15"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15"/>
+      <c r="R154" s="15"/>
+      <c r="S154" s="15"/>
+      <c r="T154" s="15"/>
+      <c r="U154" s="15"/>
+      <c r="V154" s="15"/>
+      <c r="W154" s="15"/>
+      <c r="X154" s="15"/>
+      <c r="Y154" s="15"/>
+      <c r="Z154" s="15"/>
+      <c r="AA154" s="15"/>
+      <c r="AB154" s="15"/>
+      <c r="AC154" s="15"/>
+      <c r="AD154" s="15"/>
+      <c r="AE154" s="15"/>
+      <c r="AF154" s="15"/>
+      <c r="AG154" s="15"/>
+      <c r="AH154" s="15"/>
+      <c r="AI154" s="15"/>
+      <c r="AJ154" s="15"/>
+      <c r="AK154" s="15"/>
+      <c r="AL154" s="15"/>
+      <c r="AM154" s="15"/>
+      <c r="AN154" s="15"/>
+      <c r="AO154" s="15"/>
+      <c r="AP154" s="15"/>
+      <c r="AQ154" s="15"/>
+      <c r="AR154" s="15"/>
+      <c r="AS154" s="15"/>
+      <c r="AT154" s="15"/>
+      <c r="AU154" s="15"/>
+      <c r="AV154" s="15"/>
+      <c r="AW154" s="15"/>
+      <c r="AX154" s="15"/>
+      <c r="AY154" s="15"/>
+    </row>
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="15"/>
+      <c r="Q155" s="15"/>
+      <c r="R155" s="15"/>
+      <c r="S155" s="15"/>
+      <c r="T155" s="15"/>
+      <c r="U155" s="15"/>
+      <c r="V155" s="15"/>
+      <c r="W155" s="15"/>
+      <c r="X155" s="15"/>
+      <c r="Y155" s="15"/>
+      <c r="Z155" s="15"/>
+      <c r="AA155" s="15"/>
+      <c r="AB155" s="15"/>
+      <c r="AC155" s="15"/>
+      <c r="AD155" s="15"/>
+      <c r="AE155" s="15"/>
+      <c r="AF155" s="15"/>
+      <c r="AG155" s="15"/>
+      <c r="AH155" s="15"/>
+      <c r="AI155" s="15"/>
+      <c r="AJ155" s="15"/>
+      <c r="AK155" s="15"/>
+      <c r="AL155" s="15"/>
+      <c r="AM155" s="15"/>
+      <c r="AN155" s="15"/>
+      <c r="AO155" s="15"/>
+      <c r="AP155" s="15"/>
+      <c r="AQ155" s="15"/>
+      <c r="AR155" s="15"/>
+      <c r="AS155" s="15"/>
+      <c r="AT155" s="15"/>
+      <c r="AU155" s="15"/>
+      <c r="AV155" s="15"/>
+      <c r="AW155" s="15"/>
+      <c r="AX155" s="15"/>
+      <c r="AY155" s="15"/>
+    </row>
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="15"/>
+      <c r="Q156" s="15"/>
+      <c r="R156" s="15"/>
+      <c r="S156" s="15"/>
+      <c r="T156" s="15"/>
+      <c r="U156" s="15"/>
+      <c r="V156" s="15"/>
+      <c r="W156" s="15"/>
+      <c r="X156" s="15"/>
+      <c r="Y156" s="15"/>
+      <c r="Z156" s="15"/>
+      <c r="AA156" s="15"/>
+      <c r="AB156" s="15"/>
+      <c r="AC156" s="15"/>
+      <c r="AD156" s="15"/>
+      <c r="AE156" s="15"/>
+      <c r="AF156" s="15"/>
+      <c r="AG156" s="15"/>
+      <c r="AH156" s="15"/>
+      <c r="AI156" s="15"/>
+      <c r="AJ156" s="15"/>
+      <c r="AK156" s="15"/>
+      <c r="AL156" s="15"/>
+      <c r="AM156" s="15"/>
+      <c r="AN156" s="15"/>
+      <c r="AO156" s="15"/>
+      <c r="AP156" s="15"/>
+      <c r="AQ156" s="15"/>
+      <c r="AR156" s="15"/>
+      <c r="AS156" s="15"/>
+      <c r="AT156" s="15"/>
+      <c r="AU156" s="15"/>
+      <c r="AV156" s="15"/>
+      <c r="AW156" s="15"/>
+      <c r="AX156" s="15"/>
+      <c r="AY156" s="15"/>
+    </row>
+    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
+      <c r="Q157" s="15"/>
+      <c r="R157" s="15"/>
+      <c r="S157" s="15"/>
+      <c r="T157" s="15"/>
+      <c r="U157" s="15"/>
+      <c r="V157" s="15"/>
+      <c r="W157" s="15"/>
+      <c r="X157" s="15"/>
+      <c r="Y157" s="15"/>
+      <c r="Z157" s="15"/>
+      <c r="AA157" s="15"/>
+      <c r="AB157" s="15"/>
+      <c r="AC157" s="15"/>
+      <c r="AD157" s="15"/>
+      <c r="AE157" s="15"/>
+      <c r="AF157" s="15"/>
+      <c r="AG157" s="15"/>
+      <c r="AH157" s="15"/>
+      <c r="AI157" s="15"/>
+      <c r="AJ157" s="15"/>
+      <c r="AK157" s="15"/>
+      <c r="AL157" s="15"/>
+      <c r="AM157" s="15"/>
+      <c r="AN157" s="15"/>
+      <c r="AO157" s="15"/>
+      <c r="AP157" s="15"/>
+      <c r="AQ157" s="15"/>
+      <c r="AR157" s="15"/>
+      <c r="AS157" s="15"/>
+      <c r="AT157" s="15"/>
+      <c r="AU157" s="15"/>
+      <c r="AV157" s="15"/>
+      <c r="AW157" s="15"/>
+      <c r="AX157" s="15"/>
+      <c r="AY157" s="15"/>
+    </row>
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
+      <c r="Q158" s="15"/>
+      <c r="R158" s="15"/>
+      <c r="S158" s="15"/>
+      <c r="T158" s="15"/>
+      <c r="U158" s="15"/>
+      <c r="V158" s="15"/>
+      <c r="W158" s="15"/>
+      <c r="X158" s="15"/>
+      <c r="Y158" s="15"/>
+      <c r="Z158" s="15"/>
+      <c r="AA158" s="15"/>
+      <c r="AB158" s="15"/>
+      <c r="AC158" s="15"/>
+      <c r="AD158" s="15"/>
+      <c r="AE158" s="15"/>
+      <c r="AF158" s="15"/>
+      <c r="AG158" s="15"/>
+      <c r="AH158" s="15"/>
+      <c r="AI158" s="15"/>
+      <c r="AJ158" s="15"/>
+      <c r="AK158" s="15"/>
+      <c r="AL158" s="15"/>
+      <c r="AM158" s="15"/>
+      <c r="AN158" s="15"/>
+      <c r="AO158" s="15"/>
+      <c r="AP158" s="15"/>
+      <c r="AQ158" s="15"/>
+      <c r="AR158" s="15"/>
+      <c r="AS158" s="15"/>
+      <c r="AT158" s="15"/>
+      <c r="AU158" s="15"/>
+      <c r="AV158" s="15"/>
+      <c r="AW158" s="15"/>
+      <c r="AX158" s="15"/>
+      <c r="AY158" s="15"/>
+    </row>
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
+      <c r="R159" s="15"/>
+      <c r="S159" s="15"/>
+      <c r="T159" s="15"/>
+      <c r="U159" s="15"/>
+      <c r="V159" s="15"/>
+      <c r="W159" s="15"/>
+      <c r="X159" s="15"/>
+      <c r="Y159" s="15"/>
+      <c r="Z159" s="15"/>
+      <c r="AA159" s="15"/>
+      <c r="AB159" s="15"/>
+      <c r="AC159" s="15"/>
+      <c r="AD159" s="15"/>
+      <c r="AE159" s="15"/>
+      <c r="AF159" s="15"/>
+      <c r="AG159" s="15"/>
+      <c r="AH159" s="15"/>
+      <c r="AI159" s="15"/>
+      <c r="AJ159" s="15"/>
+      <c r="AK159" s="15"/>
+      <c r="AL159" s="15"/>
+      <c r="AM159" s="15"/>
+      <c r="AN159" s="15"/>
+      <c r="AO159" s="15"/>
+      <c r="AP159" s="15"/>
+      <c r="AQ159" s="15"/>
+      <c r="AR159" s="15"/>
+      <c r="AS159" s="15"/>
+      <c r="AT159" s="15"/>
+      <c r="AU159" s="15"/>
+      <c r="AV159" s="15"/>
+      <c r="AW159" s="15"/>
+      <c r="AX159" s="15"/>
+      <c r="AY159" s="15"/>
+    </row>
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
+      <c r="S160" s="15"/>
+      <c r="T160" s="15"/>
+      <c r="U160" s="15"/>
+      <c r="V160" s="15"/>
+      <c r="W160" s="15"/>
+      <c r="X160" s="15"/>
+      <c r="Y160" s="15"/>
+      <c r="Z160" s="15"/>
+      <c r="AA160" s="15"/>
+      <c r="AB160" s="15"/>
+      <c r="AC160" s="15"/>
+      <c r="AD160" s="15"/>
+      <c r="AE160" s="15"/>
+      <c r="AF160" s="15"/>
+      <c r="AG160" s="15"/>
+      <c r="AH160" s="15"/>
+      <c r="AI160" s="15"/>
+      <c r="AJ160" s="15"/>
+      <c r="AK160" s="15"/>
+      <c r="AL160" s="15"/>
+      <c r="AM160" s="15"/>
+      <c r="AN160" s="15"/>
+      <c r="AO160" s="15"/>
+      <c r="AP160" s="15"/>
+      <c r="AQ160" s="15"/>
+      <c r="AR160" s="15"/>
+      <c r="AS160" s="15"/>
+      <c r="AT160" s="15"/>
+      <c r="AU160" s="15"/>
+      <c r="AV160" s="15"/>
+      <c r="AW160" s="15"/>
+      <c r="AX160" s="15"/>
+      <c r="AY160" s="15"/>
+    </row>
+    <row r="161" spans="10:51" x14ac:dyDescent="0.25">
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+      <c r="R161" s="15"/>
+      <c r="S161" s="15"/>
+      <c r="T161" s="15"/>
+      <c r="U161" s="15"/>
+      <c r="V161" s="15"/>
+      <c r="W161" s="15"/>
+      <c r="X161" s="15"/>
+      <c r="Y161" s="15"/>
+      <c r="Z161" s="15"/>
+      <c r="AA161" s="15"/>
+      <c r="AB161" s="15"/>
+      <c r="AC161" s="15"/>
+      <c r="AD161" s="15"/>
+      <c r="AE161" s="15"/>
+      <c r="AF161" s="15"/>
+      <c r="AG161" s="15"/>
+      <c r="AH161" s="15"/>
+      <c r="AI161" s="15"/>
+      <c r="AJ161" s="15"/>
+      <c r="AK161" s="15"/>
+      <c r="AL161" s="15"/>
+      <c r="AM161" s="15"/>
+      <c r="AN161" s="15"/>
+      <c r="AO161" s="15"/>
+      <c r="AP161" s="15"/>
+      <c r="AQ161" s="15"/>
+      <c r="AR161" s="15"/>
+      <c r="AS161" s="15"/>
+      <c r="AT161" s="15"/>
+      <c r="AU161" s="15"/>
+      <c r="AV161" s="15"/>
+      <c r="AW161" s="15"/>
+      <c r="AX161" s="15"/>
+      <c r="AY161" s="15"/>
+    </row>
+    <row r="162" spans="10:51" x14ac:dyDescent="0.25">
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+      <c r="Q162" s="15"/>
+      <c r="R162" s="15"/>
+      <c r="S162" s="15"/>
+      <c r="T162" s="15"/>
+      <c r="U162" s="15"/>
+      <c r="V162" s="15"/>
+      <c r="W162" s="15"/>
+      <c r="X162" s="15"/>
+      <c r="Y162" s="15"/>
+      <c r="Z162" s="15"/>
+      <c r="AA162" s="15"/>
+      <c r="AB162" s="15"/>
+      <c r="AC162" s="15"/>
+      <c r="AD162" s="15"/>
+      <c r="AE162" s="15"/>
+      <c r="AF162" s="15"/>
+      <c r="AG162" s="15"/>
+      <c r="AH162" s="15"/>
+      <c r="AI162" s="15"/>
+      <c r="AJ162" s="15"/>
+      <c r="AK162" s="15"/>
+      <c r="AL162" s="15"/>
+      <c r="AM162" s="15"/>
+      <c r="AN162" s="15"/>
+      <c r="AO162" s="15"/>
+      <c r="AP162" s="15"/>
+      <c r="AQ162" s="15"/>
+      <c r="AR162" s="15"/>
+      <c r="AS162" s="15"/>
+      <c r="AT162" s="15"/>
+      <c r="AU162" s="15"/>
+      <c r="AV162" s="15"/>
+      <c r="AW162" s="15"/>
+      <c r="AX162" s="15"/>
+      <c r="AY162" s="15"/>
+    </row>
+    <row r="163" spans="10:51" x14ac:dyDescent="0.25">
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
+      <c r="R163" s="15"/>
+      <c r="S163" s="15"/>
+      <c r="T163" s="15"/>
+      <c r="U163" s="15"/>
+      <c r="V163" s="15"/>
+      <c r="W163" s="15"/>
+      <c r="X163" s="15"/>
+      <c r="Y163" s="15"/>
+      <c r="Z163" s="15"/>
+      <c r="AA163" s="15"/>
+      <c r="AB163" s="15"/>
+      <c r="AC163" s="15"/>
+      <c r="AD163" s="15"/>
+      <c r="AE163" s="15"/>
+      <c r="AF163" s="15"/>
+      <c r="AG163" s="15"/>
+      <c r="AH163" s="15"/>
+      <c r="AI163" s="15"/>
+      <c r="AJ163" s="15"/>
+      <c r="AK163" s="15"/>
+      <c r="AL163" s="15"/>
+      <c r="AM163" s="15"/>
+      <c r="AN163" s="15"/>
+      <c r="AO163" s="15"/>
+      <c r="AP163" s="15"/>
+      <c r="AQ163" s="15"/>
+      <c r="AR163" s="15"/>
+      <c r="AS163" s="15"/>
+      <c r="AT163" s="15"/>
+      <c r="AU163" s="15"/>
+      <c r="AV163" s="15"/>
+      <c r="AW163" s="15"/>
+      <c r="AX163" s="15"/>
+      <c r="AY163" s="15"/>
+    </row>
+    <row r="164" spans="10:51" x14ac:dyDescent="0.25">
+      <c r="J164" s="15"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
+      <c r="O164" s="20"/>
+      <c r="P164" s="20"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
+      <c r="AD164" s="20"/>
+      <c r="AE164" s="20"/>
+      <c r="AF164" s="20"/>
+      <c r="AG164" s="20"/>
+      <c r="AH164" s="20"/>
+      <c r="AI164" s="20"/>
+      <c r="AJ164" s="20"/>
+      <c r="AK164" s="20"/>
+      <c r="AL164" s="20"/>
+      <c r="AM164" s="20"/>
+      <c r="AN164" s="20"/>
+      <c r="AO164" s="20"/>
+      <c r="AP164" s="20"/>
+      <c r="AQ164" s="20"/>
+      <c r="AR164" s="20"/>
+      <c r="AS164" s="20"/>
+      <c r="AT164" s="20"/>
+      <c r="AU164" s="20"/>
+      <c r="AV164" s="20"/>
+      <c r="AW164" s="20"/>
+      <c r="AX164" s="20"/>
+      <c r="AY164" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2472,8 +7686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,47 +7698,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" t="s">
@@ -2532,7 +7746,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2540,7 +7754,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -2548,7 +7762,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" t="s">
@@ -2556,7 +7770,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -2564,7 +7778,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>0</v>
       </c>
     </row>
